--- a/biology/Zoologie/Alpheus/Alpheus.xlsx
+++ b/biology/Zoologie/Alpheus/Alpheus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpheus est un genre regroupant de très nombreuses espèces de crevettes marines de la famille des Alpheidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Symbiose avec les gobies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Alpheus s'associent quelquefois à d'autres organismes, notamment des colonies de corail, ou certaines espèces de gobies.
-Par exemple le Gobie de Steinitz ou Gobie commensal (Amblyeleotris steinitzi) s'associe avec la crevette Alpheus djeddensis[1]. Le gobie creuse un « terrier » dans le sable que la crevette entretient, et dans lequel la crevette et les gobies vivent. La crevette a mauvaise vue comparativement au gobie, mais si elle le voit ou le sent brutalement rentrer dans le trou, elle le suit. Le gobie et la crevette restent en contact, la crevette utilisant ses antennes et le gobie effleurant la crevette avec sa queue lorsqu'il est alarmé. Chacun des deux gagne de cette relation : la crevette obtient un avertissement à l'approche d'un danger, et le gobie obtient une maison sûre et un endroit dans lequel pondre ses œufs.
+Par exemple le Gobie de Steinitz ou Gobie commensal (Amblyeleotris steinitzi) s'associe avec la crevette Alpheus djeddensis. Le gobie creuse un « terrier » dans le sable que la crevette entretient, et dans lequel la crevette et les gobies vivent. La crevette a mauvaise vue comparativement au gobie, mais si elle le voit ou le sent brutalement rentrer dans le trou, elle le suit. Le gobie et la crevette restent en contact, la crevette utilisant ses antennes et le gobie effleurant la crevette avec sa queue lorsqu'il est alarmé. Chacun des deux gagne de cette relation : la crevette obtient un avertissement à l'approche d'un danger, et le gobie obtient une maison sûre et un endroit dans lequel pondre ses œufs.
 Certains aquariophiles reproduisent ce type de symbiose en aquarium.
 			Association mutualiste entre un gobie Amblyeleotris wheeleri et une Alpheus ochrostriatus à la Réunion.
 			Deux gobies et une crevette du genre Alpheus cohabitent
@@ -547,9 +561,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 septembre 2014) :
 Alpheus acutocarinatus de Man, 1909
 Alpheus acutofemoratus Dana, 1852
 Alpheus adamastor Coutière, 1908
